--- a/roster.xlsx
+++ b/roster.xlsx
@@ -12,17 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="175">
   <si>
     <t>Allergies/Dietary Restrictions</t>
   </si>
   <si>
+    <t>Where do you live?</t>
+  </si>
+  <si>
     <t>Can you drive this year? (also how many seats including yourself)</t>
   </si>
   <si>
-    <t>Where do you live?</t>
-  </si>
-  <si>
     <t>Phone #</t>
   </si>
   <si>
@@ -44,12 +44,18 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>515 Kelton Ave, Apt. 109</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
     <t>Tiffany Hoang</t>
   </si>
   <si>
+    <t>(714) 766-9512</t>
+  </si>
+  <si>
     <t>Mire Horiuchi</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
     <t>no cus imma l0ser</t>
   </si>
   <si>
+    <t>giannafurumoto@gmail.com</t>
+  </si>
+  <si>
     <t>Yi-Ling Loo</t>
   </si>
   <si>
@@ -83,13 +92,52 @@
     <t>Elise Umetsu</t>
   </si>
   <si>
+    <t>433 Kelton Ave., Apt. 314</t>
+  </si>
+  <si>
+    <t>(714) 351-1590</t>
+  </si>
+  <si>
+    <t>tiffanyhoang88@gmail.com</t>
+  </si>
+  <si>
     <t>https://www.vegan.com/</t>
   </si>
   <si>
-    <t>Ryan Miyahara</t>
-  </si>
-  <si>
-    <t>rmiyahara144@gmail.com</t>
+    <t>515 Kelton Ave., Apt M4</t>
+  </si>
+  <si>
+    <t>(805) 256-5880</t>
+  </si>
+  <si>
+    <t>hrachel98@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2941 Military Ave. </t>
+  </si>
+  <si>
+    <t>(310) 954-7040</t>
+  </si>
+  <si>
+    <t>yiling.a.loo@gmail.com</t>
+  </si>
+  <si>
+    <t>(714) 488-3173</t>
+  </si>
+  <si>
+    <t>lindsaymasukawa@gmail.com</t>
+  </si>
+  <si>
+    <t>(310) 293-9772</t>
+  </si>
+  <si>
+    <t>kylenakahira@gmail.com</t>
+  </si>
+  <si>
+    <t>(949) 309-8127</t>
+  </si>
+  <si>
+    <t>bnishida414@gmail.com</t>
   </si>
   <si>
     <t>520 Kelton Ave, Apt. 316</t>
@@ -146,49 +194,91 @@
     <t>JENNY HAS A MOM VAN I LOVE IT</t>
   </si>
   <si>
+    <t>Sproul Landing 640</t>
+  </si>
+  <si>
+    <t>(309) 255-3476</t>
+  </si>
+  <si>
+    <t>MimiPieLover@gmail.com</t>
+  </si>
+  <si>
+    <t>Jason Muljadi</t>
+  </si>
+  <si>
     <t>(805) 910-6387</t>
   </si>
   <si>
+    <t>so/dium</t>
+  </si>
+  <si>
     <t>brandon.fujii5525@gmail.com</t>
   </si>
   <si>
-    <t>Jason Muljadi</t>
-  </si>
-  <si>
-    <t>so/dium</t>
-  </si>
-  <si>
     <t>If you really need it, although I need to ask mi madre first</t>
   </si>
   <si>
     <t xml:space="preserve">Jenny stole the van from Facebook </t>
   </si>
   <si>
+    <t>558 Glenrock Ave Apt 306</t>
+  </si>
+  <si>
     <t>Emily Pham</t>
   </si>
   <si>
+    <t>(858) 356-7990</t>
+  </si>
+  <si>
+    <t>linkpichucheez@gmail.com</t>
+  </si>
+  <si>
     <t>if u really really really need. can go home for car but im not comfy driving freeway/in la quite yet so maybe put a hold pls</t>
   </si>
   <si>
     <t>Kiana Shibata</t>
   </si>
   <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>Yes 5 including me</t>
+  </si>
+  <si>
+    <t>715 Gayley Ave Apt 213</t>
+  </si>
+  <si>
+    <t>Niveda Tennety</t>
+  </si>
+  <si>
+    <t>(818) 643-9678</t>
+  </si>
+  <si>
+    <t>jmuljadi@g.ucla.edu</t>
+  </si>
+  <si>
+    <t>Bufferfish</t>
+  </si>
+  <si>
+    <t>515 Kelton Ave, Apt. 307</t>
+  </si>
+  <si>
+    <t>(626) 646-8119</t>
+  </si>
+  <si>
+    <t>emilypham36@gmail.com</t>
+  </si>
+  <si>
     <t>(707) 696-4301</t>
   </si>
   <si>
     <t>kshibata333@gmail.com</t>
   </si>
   <si>
-    <t>N/a</t>
-  </si>
-  <si>
-    <t>Yes 5 including me</t>
-  </si>
-  <si>
-    <t>Niveda Tennety</t>
-  </si>
-  <si>
-    <t>Bufferfish</t>
+    <t>(847) 830-5285</t>
+  </si>
+  <si>
+    <t>tennety@g.ucla.edu</t>
   </si>
   <si>
     <t>Mattie Kao</t>
@@ -197,9 +287,18 @@
     <t>peanuts</t>
   </si>
   <si>
+    <t>Birch 411</t>
+  </si>
+  <si>
+    <t>(408)888-5351</t>
+  </si>
+  <si>
     <t>May Kono</t>
   </si>
   <si>
+    <t>matthewtkao@gmail.com</t>
+  </si>
+  <si>
     <t>no beef plez</t>
   </si>
   <si>
@@ -218,15 +317,30 @@
     <t>Troy Sisson</t>
   </si>
   <si>
+    <t>Rieber North 559</t>
+  </si>
+  <si>
     <t>Michael Tabe</t>
   </si>
   <si>
+    <t>310-562-2511</t>
+  </si>
+  <si>
+    <t>maykono2018@g.ucla.edu</t>
+  </si>
+  <si>
     <t>Reilly Terao</t>
   </si>
   <si>
     <t>All nuts</t>
   </si>
   <si>
+    <t>(323)819-0032</t>
+  </si>
+  <si>
+    <t>cadeokohira@gmail.com</t>
+  </si>
+  <si>
     <t>Hana Tyszka</t>
   </si>
   <si>
@@ -236,39 +350,78 @@
     <t>yes! 5 including me</t>
   </si>
   <si>
+    <t>Reiber  North 559</t>
+  </si>
+  <si>
     <t>NEWBIES</t>
   </si>
   <si>
+    <t>(601)875-0399</t>
+  </si>
+  <si>
+    <t>camillelyn.cp@gmail.com</t>
+  </si>
+  <si>
     <t>Alexandros Antonorsi</t>
   </si>
   <si>
+    <t>(970) 372-9373</t>
+  </si>
+  <si>
+    <t>tasisson12@gmail.com</t>
+  </si>
+  <si>
+    <t>Sproul Cove 436</t>
+  </si>
+  <si>
+    <t>(808)626-8377</t>
+  </si>
+  <si>
+    <t>michael.t.tabe@gmail.com</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>Nathan Cai</t>
+  </si>
+  <si>
+    <t>(925) 818-2527</t>
+  </si>
+  <si>
+    <t>reillyterao@yahoo.com</t>
+  </si>
+  <si>
+    <t>Kelly Chan</t>
+  </si>
+  <si>
+    <t>565 Gayley Ave Apt 603</t>
+  </si>
+  <si>
+    <t>no car :(</t>
+  </si>
+  <si>
+    <t>(626)660-8124</t>
+  </si>
+  <si>
+    <t>hana.tyszka@gmail.com</t>
+  </si>
+  <si>
+    <t>Grace Hirai</t>
+  </si>
+  <si>
+    <t>n/a!</t>
+  </si>
+  <si>
+    <t>no rip</t>
+  </si>
+  <si>
     <t xml:space="preserve">can't believe all these kids below are born 2000's </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>nop</t>
-  </si>
-  <si>
-    <t>Nathan Cai</t>
-  </si>
-  <si>
-    <t>Kelly Chan</t>
-  </si>
-  <si>
-    <t>no car :(</t>
-  </si>
-  <si>
-    <t>Grace Hirai</t>
-  </si>
-  <si>
-    <t>n/a!</t>
-  </si>
-  <si>
-    <t>no rip</t>
-  </si>
-  <si>
     <t>Erin Hu</t>
   </si>
   <si>
@@ -278,6 +431,9 @@
     <t>je ne have pas car</t>
   </si>
   <si>
+    <t>Canyon Point 308A</t>
+  </si>
+  <si>
     <t>Ivy Kang</t>
   </si>
   <si>
@@ -293,10 +449,102 @@
     <t>Ashley Robinson</t>
   </si>
   <si>
+    <t>(954)591-2659</t>
+  </si>
+  <si>
+    <t>alexandros@ucla.edu</t>
+  </si>
+  <si>
     <t>Cassidy Song</t>
   </si>
   <si>
     <t>mildly allergic to cats</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">silence, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>boomer</t>
+    </r>
+  </si>
+  <si>
+    <t>alex, you're gonna get fucked, i stg #scissorsquad</t>
+  </si>
+  <si>
+    <t>(650) 933-8693</t>
+  </si>
+  <si>
+    <t>nathanycai@gmail.com</t>
+  </si>
+  <si>
+    <t>it's zoomer time</t>
+  </si>
+  <si>
+    <t>Rieber South 311</t>
+  </si>
+  <si>
+    <t>(650) 255-2866</t>
+  </si>
+  <si>
+    <t>kelmchan24@ucla.edu</t>
+  </si>
+  <si>
+    <t>the future is now old man</t>
+  </si>
+  <si>
+    <t>Hedrick summit 352A</t>
+  </si>
+  <si>
+    <t>gracehirai@g.ucla.edu</t>
+  </si>
+  <si>
+    <t>dykstra hall 0852</t>
+  </si>
+  <si>
+    <t>(925) 922-1950</t>
+  </si>
+  <si>
+    <t>erinhu@g.ucla.edu</t>
+  </si>
+  <si>
+    <t>Hitch Suites C31b</t>
+  </si>
+  <si>
+    <t>(424)-440-9827</t>
+  </si>
+  <si>
+    <t>ivykang@g.ucla.edu</t>
+  </si>
+  <si>
+    <t>Hedrick Hall 212</t>
+  </si>
+  <si>
+    <t>(615) 393-3292</t>
+  </si>
+  <si>
+    <t>brianlu18@g.ucla.edu</t>
+  </si>
+  <si>
+    <t>Rieber 311S</t>
+  </si>
+  <si>
+    <t>(714)-624-1671</t>
+  </si>
+  <si>
+    <t>ashleyrobinson3@ucla.edu</t>
+  </si>
+  <si>
+    <t>rieber south 437</t>
+  </si>
+  <si>
+    <t>(562)786-9064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cesong11@yahoo.com </t>
   </si>
 </sst>
 </file>
@@ -468,16 +716,16 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -490,11 +738,11 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -525,17 +773,17 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -595,7 +843,7 @@
     <row r="1">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -638,70 +886,136 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="14">
+        <v>35908.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="15">
+        <v>35768.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="15">
+        <v>35804.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="15">
+        <v>35948.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="16">
+        <v>35805.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="16">
+        <v>35854.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="17">
+        <v>35899.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="17">
         <v>35792.0</v>
@@ -715,8 +1029,8 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
-        <v>29</v>
+      <c r="A12" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -725,225 +1039,452 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E13" s="25">
         <v>36392.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="25">
+        <v>36356.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E15" s="25">
         <v>36476.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="25">
+        <v>36391.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="25">
+        <v>36154.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="25"/>
+      <c r="A18" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="25">
+        <v>36451.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E19" s="25">
         <v>36151.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21"/>
+      <c r="A20" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="25">
+        <v>35986.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="27" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="30"/>
+      <c r="A23" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="30">
+        <v>36708.0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="30"/>
+      <c r="A24" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="30">
+        <v>36657.0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="30"/>
+      <c r="A25" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="30">
+        <v>36744.0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="31"/>
+      <c r="A26" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="32">
+        <v>36725.0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="31"/>
+      <c r="A27" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="32">
+        <v>36462.0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="31"/>
+      <c r="A28" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="32">
+        <v>36701.0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="28"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="31"/>
+      <c r="A29" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="32">
+        <v>36852.0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="31"/>
+      <c r="A30" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="32">
+        <v>36429.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" s="26"/>
     </row>
     <row r="32">
-      <c r="A32" s="32" t="s">
-        <v>74</v>
+      <c r="A32" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="36"/>
+      <c r="A33" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="36">
+        <v>36978.0</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="34"/>
+      <c r="A34" s="33" t="s">
+        <v>124</v>
+      </c>
       <c r="B34" s="38"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
+      <c r="C34" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="39">
+        <v>37186.0</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="36"/>
+      <c r="A35" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="36">
+        <v>36793.0</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="39"/>
+      <c r="A36" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="33">
+        <v>4.243457172E9</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="39">
+        <v>37168.0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="39"/>
+      <c r="A37" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="39">
+        <v>37179.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="39"/>
+      <c r="A38" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="39">
+        <v>37098.0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="39"/>
+      <c r="A39" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="39">
+        <v>36699.0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="36"/>
+      <c r="A40" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="36">
+        <v>36957.0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="39"/>
+      <c r="A41" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="39">
+        <v>37206.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -974,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -992,239 +1533,239 @@
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
         <v>14</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>18</v>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>21</v>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>29</v>
+      <c r="A13" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="24" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="21" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
     </row>
     <row r="23">
       <c r="A23" s="27" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C24" s="29"/>
     </row>
     <row r="25">
       <c r="A25" s="28" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="28" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="28" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="28" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>9</v>
@@ -1233,125 +1774,125 @@
     </row>
     <row r="30">
       <c r="A30" s="28" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="28" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="32" t="s">
-        <v>74</v>
+      <c r="A33" s="31" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>78</v>
+      <c r="A34" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>10</v>
+      <c r="A35" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="34" t="s">
+      <c r="A36" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>81</v>
+      <c r="C36" s="33" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>84</v>
+      <c r="A37" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>87</v>
+      <c r="A38" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>89</v>
+      <c r="A39" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>91</v>
+      <c r="A40" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>81</v>
+      <c r="C41" s="33" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>94</v>
+      <c r="A42" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="C42" s="37"/>
     </row>
